--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soltanirayen/Desktop/SBR_Portfolio_App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2CBCA-CF71-8749-9436-347D5DE42911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D333F1-A3FD-894A-AFD3-2F1014FB0B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ordres" sheetId="1" r:id="rId1"/>
+    <sheet name="Transactions" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="4" r:id="rId2"/>
     <sheet name="Prix_Titres" sheetId="2" r:id="rId3"/>
     <sheet name="Jour_Marche" sheetId="3" r:id="rId4"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Prix_Titres!$A$1:$CB$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="264">
   <si>
     <t>Date</t>
   </si>
@@ -565,9 +566,6 @@
     <t>Prix</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>US00206R1023</t>
   </si>
   <si>
@@ -992,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1080,9 +1078,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1393,8 +1389,8 @@
   </sheetPr>
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1461,10 +1457,10 @@
         <v>91</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G2" s="13">
         <v>110</v>
@@ -1497,10 +1493,10 @@
         <v>93</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="G3" s="18">
         <v>12</v>
@@ -1533,10 +1529,10 @@
         <v>94</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="G4" s="13">
         <v>52</v>
@@ -1569,10 +1565,10 @@
         <v>95</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="G5" s="18">
         <v>10</v>
@@ -1605,10 +1601,10 @@
         <v>96</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="G6" s="13">
         <v>28</v>
@@ -1641,10 +1637,10 @@
         <v>97</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="G7" s="18">
         <v>69</v>
@@ -1677,10 +1673,10 @@
         <v>98</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="13">
         <v>10</v>
@@ -1713,10 +1709,10 @@
         <v>99</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="G9" s="18">
         <v>77</v>
@@ -1749,10 +1745,10 @@
         <v>100</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="13">
         <v>4</v>
@@ -1785,10 +1781,10 @@
         <v>101</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="18">
         <v>31</v>
@@ -1821,10 +1817,10 @@
         <v>102</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="13">
         <v>59</v>
@@ -1857,10 +1853,10 @@
         <v>103</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" s="18">
         <v>84</v>
@@ -1893,10 +1889,10 @@
         <v>104</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="13">
         <v>60</v>
@@ -1929,10 +1925,10 @@
         <v>105</v>
       </c>
       <c r="E15" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="G15" s="18">
         <v>58</v>
@@ -1965,10 +1961,10 @@
         <v>106</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="13">
         <v>8</v>
@@ -2001,10 +1997,10 @@
         <v>107</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="18">
         <v>4</v>
@@ -2037,10 +2033,10 @@
         <v>108</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" s="13">
         <v>62</v>
@@ -2073,10 +2069,10 @@
         <v>109</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G19" s="18">
         <v>56</v>
@@ -2109,10 +2105,10 @@
         <v>110</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G20" s="13">
         <v>45</v>
@@ -2145,10 +2141,10 @@
         <v>111</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="18">
         <v>19</v>
@@ -2181,10 +2177,10 @@
         <v>112</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" s="13">
         <v>110</v>
@@ -2217,10 +2213,10 @@
         <v>113</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G23" s="18">
         <v>53</v>
@@ -2253,10 +2249,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G24" s="13">
         <v>23</v>
@@ -2289,10 +2285,10 @@
         <v>115</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" s="18">
         <v>38</v>
@@ -2325,10 +2321,10 @@
         <v>116</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="13">
         <v>6</v>
@@ -2361,10 +2357,10 @@
         <v>117</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="18">
         <v>68</v>
@@ -2397,10 +2393,10 @@
         <v>118</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G28" s="13">
         <v>91</v>
@@ -2433,10 +2429,10 @@
         <v>119</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="18">
         <v>80</v>
@@ -2469,10 +2465,10 @@
         <v>120</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G30" s="13">
         <v>58</v>
@@ -2505,10 +2501,10 @@
         <v>121</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="18">
         <v>31</v>
@@ -2541,10 +2537,10 @@
         <v>122</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="13">
         <v>33</v>
@@ -2577,10 +2573,10 @@
         <v>123</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" s="18">
         <v>13</v>
@@ -2613,10 +2609,10 @@
         <v>124</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G34" s="13">
         <v>73</v>
@@ -2649,10 +2645,10 @@
         <v>93</v>
       </c>
       <c r="E35" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="G35" s="18">
         <v>12</v>
@@ -2685,10 +2681,10 @@
         <v>126</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G36" s="13">
         <v>1</v>
@@ -2721,10 +2717,10 @@
         <v>96</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="G37" s="18">
         <v>28</v>
@@ -2757,10 +2753,10 @@
         <v>97</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="G38" s="13">
         <v>69</v>
@@ -2793,10 +2789,10 @@
         <v>98</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G39" s="18">
         <v>10</v>
@@ -2829,10 +2825,10 @@
         <v>99</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="G40" s="13">
         <v>77</v>
@@ -2865,10 +2861,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G41" s="18">
         <v>4</v>
@@ -2901,10 +2897,10 @@
         <v>127</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" s="13">
         <v>60</v>
@@ -2937,10 +2933,10 @@
         <v>128</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G43" s="18">
         <v>101</v>
@@ -2973,10 +2969,10 @@
         <v>129</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="13">
         <v>21</v>
@@ -3009,10 +3005,10 @@
         <v>130</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="18">
         <v>22</v>
@@ -3045,10 +3041,10 @@
         <v>101</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G46" s="13">
         <v>31</v>
@@ -3081,10 +3077,10 @@
         <v>131</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G47" s="18">
         <v>26</v>
@@ -3117,10 +3113,10 @@
         <v>132</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G48" s="13">
         <v>18</v>
@@ -3153,10 +3149,10 @@
         <v>133</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49" s="18">
         <v>8</v>
@@ -3189,10 +3185,10 @@
         <v>104</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G50" s="13">
         <v>60</v>
@@ -3225,10 +3221,10 @@
         <v>134</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G51" s="18">
         <v>172</v>
@@ -3261,10 +3257,10 @@
         <v>106</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G52" s="13">
         <v>8</v>
@@ -3297,10 +3293,10 @@
         <v>135</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G53" s="18">
         <v>86</v>
@@ -3333,10 +3329,10 @@
         <v>136</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" s="13">
         <v>115</v>
@@ -3369,10 +3365,10 @@
         <v>109</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G55" s="18">
         <v>56</v>
@@ -3405,10 +3401,10 @@
         <v>110</v>
       </c>
       <c r="E56" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G56" s="13">
         <v>45</v>
@@ -3441,10 +3437,10 @@
         <v>111</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G57" s="18">
         <v>19</v>
@@ -3477,10 +3473,10 @@
         <v>137</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" s="13">
         <v>34</v>
@@ -3513,10 +3509,10 @@
         <v>138</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G59" s="18">
         <v>22</v>
@@ -3549,10 +3545,10 @@
         <v>117</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G60" s="13">
         <v>68</v>
@@ -3585,10 +3581,10 @@
         <v>118</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G61" s="18">
         <v>91</v>
@@ -3621,10 +3617,10 @@
         <v>139</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G62" s="13">
         <v>19</v>
@@ -3657,10 +3653,10 @@
         <v>121</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G63" s="18">
         <v>31</v>
@@ -3693,10 +3689,10 @@
         <v>124</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G64" s="13">
         <v>73</v>
@@ -3729,10 +3725,10 @@
         <v>140</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G65" s="18">
         <v>45</v>
@@ -3765,10 +3761,10 @@
         <v>126</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G66" s="13">
         <v>1</v>
@@ -3801,10 +3797,10 @@
         <v>95</v>
       </c>
       <c r="E67" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="G67" s="18">
         <v>10</v>
@@ -3837,10 +3833,10 @@
         <v>141</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G68" s="13">
         <v>18</v>
@@ -3873,10 +3869,10 @@
         <v>142</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G69" s="18">
         <v>2</v>
@@ -3909,10 +3905,10 @@
         <v>129</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G70" s="13">
         <v>21</v>
@@ -3945,10 +3941,10 @@
         <v>143</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G71" s="18">
         <v>46</v>
@@ -3981,10 +3977,10 @@
         <v>131</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G72" s="13">
         <v>26</v>
@@ -4017,10 +4013,10 @@
         <v>133</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G73" s="18">
         <v>8</v>
@@ -4053,10 +4049,10 @@
         <v>135</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G74" s="13">
         <v>86</v>
@@ -4089,10 +4085,10 @@
         <v>111</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G75" s="18">
         <v>17</v>
@@ -4125,10 +4121,10 @@
         <v>113</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G76" s="13">
         <v>53</v>
@@ -4161,10 +4157,10 @@
         <v>144</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G77" s="18">
         <v>75</v>
@@ -4197,10 +4193,10 @@
         <v>141</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G78" s="13">
         <v>14</v>
@@ -4233,10 +4229,10 @@
         <v>142</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G79" s="18">
         <v>2</v>
@@ -4269,10 +4265,10 @@
         <v>102</v>
       </c>
       <c r="E80" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G80" s="13">
         <v>31</v>
@@ -4305,10 +4301,10 @@
         <v>105</v>
       </c>
       <c r="E81" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="G81" s="18">
         <v>40</v>
@@ -4341,10 +4337,10 @@
         <v>122</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G82" s="13">
         <v>33</v>
@@ -4377,10 +4373,10 @@
         <v>107</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G83" s="18">
         <v>4</v>
@@ -4413,10 +4409,10 @@
         <v>108</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G84" s="13">
         <v>34</v>
@@ -4449,10 +4445,10 @@
         <v>91</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G85" s="18">
         <v>110</v>
@@ -4485,10 +4481,10 @@
         <v>144</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G86" s="13">
         <v>68</v>
@@ -4521,10 +4517,10 @@
         <v>93</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G87" s="18">
         <v>8</v>
@@ -4557,10 +4553,10 @@
         <v>126</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G88" s="13">
         <v>1</v>
@@ -4593,10 +4589,10 @@
         <v>145</v>
       </c>
       <c r="E89" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="G89" s="18">
         <v>22</v>
@@ -4629,10 +4625,10 @@
         <v>146</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G90" s="13">
         <v>41</v>
@@ -4665,10 +4661,10 @@
         <v>131</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G91" s="18">
         <v>20</v>
@@ -4701,10 +4697,10 @@
         <v>147</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G92" s="13">
         <v>28</v>
@@ -4737,10 +4733,10 @@
         <v>124</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G93" s="18">
         <v>62</v>
@@ -4773,10 +4769,10 @@
         <v>148</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G94" s="13">
         <v>21</v>
@@ -4809,10 +4805,10 @@
         <v>149</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G95" s="18">
         <v>56</v>
@@ -4845,10 +4841,10 @@
         <v>150</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G96" s="13">
         <v>32</v>
@@ -4881,10 +4877,10 @@
         <v>93</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G97" s="18">
         <v>8</v>
@@ -4917,10 +4913,10 @@
         <v>94</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G98" s="13">
         <v>52</v>
@@ -4953,10 +4949,10 @@
         <v>102</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G99" s="18">
         <v>28</v>
@@ -4989,10 +4985,10 @@
         <v>103</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G100" s="13">
         <v>84</v>
@@ -5025,10 +5021,10 @@
         <v>105</v>
       </c>
       <c r="E101" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="G101" s="18">
         <v>18</v>
@@ -5061,10 +5057,10 @@
         <v>108</v>
       </c>
       <c r="E102" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="G102" s="13">
         <v>28</v>
@@ -5097,10 +5093,10 @@
         <v>111</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G103" s="18">
         <v>17</v>
@@ -5133,10 +5129,10 @@
         <v>112</v>
       </c>
       <c r="E104" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="G104" s="13">
         <v>110</v>
@@ -5169,10 +5165,10 @@
         <v>114</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G105" s="18">
         <v>23</v>
@@ -5205,10 +5201,10 @@
         <v>115</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G106" s="13">
         <v>38</v>
@@ -5241,10 +5237,10 @@
         <v>116</v>
       </c>
       <c r="E107" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="G107" s="18">
         <v>6</v>
@@ -5277,10 +5273,10 @@
         <v>119</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G108" s="13">
         <v>80</v>
@@ -5313,10 +5309,10 @@
         <v>120</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G109" s="18">
         <v>58</v>
@@ -5349,10 +5345,10 @@
         <v>123</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G110" s="13">
         <v>13</v>
@@ -5385,10 +5381,10 @@
         <v>124</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G111" s="18">
         <v>62</v>
@@ -5421,10 +5417,10 @@
         <v>126</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G112" s="13">
         <v>1</v>
@@ -5457,10 +5453,10 @@
         <v>127</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G113" s="18">
         <v>60</v>
@@ -5493,10 +5489,10 @@
         <v>128</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G114" s="13">
         <v>101</v>
@@ -5529,10 +5525,10 @@
         <v>130</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G115" s="18">
         <v>22</v>
@@ -5565,10 +5561,10 @@
         <v>131</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G116" s="13">
         <v>20</v>
@@ -5601,10 +5597,10 @@
         <v>132</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G117" s="18">
         <v>18</v>
@@ -5637,10 +5633,10 @@
         <v>134</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G118" s="13">
         <v>172</v>
@@ -5673,10 +5669,10 @@
         <v>136</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G119" s="18">
         <v>115</v>
@@ -5709,10 +5705,10 @@
         <v>137</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G120" s="13">
         <v>34</v>
@@ -5745,10 +5741,10 @@
         <v>138</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G121" s="18">
         <v>22</v>
@@ -5781,10 +5777,10 @@
         <v>139</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G122" s="13">
         <v>19</v>
@@ -5817,10 +5813,10 @@
         <v>140</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G123" s="18">
         <v>45</v>
@@ -5853,10 +5849,10 @@
         <v>141</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G124" s="13">
         <v>4</v>
@@ -5889,10 +5885,10 @@
         <v>143</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G125" s="18">
         <v>46</v>
@@ -5925,10 +5921,10 @@
         <v>144</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G126" s="13">
         <v>7</v>
@@ -5961,10 +5957,10 @@
         <v>145</v>
       </c>
       <c r="E127" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F127" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="G127" s="18">
         <v>22</v>
@@ -5997,10 +5993,10 @@
         <v>146</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G128" s="13">
         <v>41</v>
@@ -6033,10 +6029,10 @@
         <v>147</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G129" s="18">
         <v>28</v>
@@ -6069,10 +6065,10 @@
         <v>148</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G130" s="13">
         <v>21</v>
@@ -6105,10 +6101,10 @@
         <v>149</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G131" s="18">
         <v>56</v>
@@ -6141,10 +6137,10 @@
         <v>150</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G132" s="13">
         <v>32</v>
@@ -6177,10 +6173,10 @@
         <v>127</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G133" s="18">
         <v>20</v>
@@ -6213,10 +6209,10 @@
         <v>119</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G134" s="13">
         <v>20</v>
@@ -6249,10 +6245,10 @@
         <v>151</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G135" s="18">
         <v>24</v>
@@ -6285,10 +6281,10 @@
         <v>152</v>
       </c>
       <c r="E136" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F136" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G136" s="13">
         <v>22</v>
@@ -6321,10 +6317,10 @@
         <v>111</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G137" s="18">
         <v>12</v>
@@ -6357,10 +6353,10 @@
         <v>103</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G138" s="13">
         <v>52</v>
@@ -6393,10 +6389,10 @@
         <v>131</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G139" s="18">
         <v>15</v>
@@ -6429,10 +6425,10 @@
         <v>142</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G140" s="13">
         <v>1</v>
@@ -6465,10 +6461,10 @@
         <v>112</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G141" s="18">
         <v>45</v>
@@ -6501,10 +6497,10 @@
         <v>102</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G142" s="13">
         <v>25</v>
@@ -6537,10 +6533,10 @@
         <v>153</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G143" s="18">
         <v>47</v>
@@ -6573,10 +6569,10 @@
         <v>154</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G144" s="13">
         <v>13</v>
@@ -6609,10 +6605,10 @@
         <v>149</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G145" s="18">
         <v>31</v>
@@ -6645,10 +6641,10 @@
         <v>93</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G146" s="13">
         <v>4</v>
@@ -6681,10 +6677,10 @@
         <v>155</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G147" s="18">
         <v>50</v>
@@ -6717,10 +6713,10 @@
         <v>132</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G148" s="13">
         <v>11</v>
@@ -6753,10 +6749,10 @@
         <v>124</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G149" s="18">
         <v>52</v>
@@ -6789,10 +6785,10 @@
         <v>120</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G150" s="13">
         <v>32</v>
@@ -6825,10 +6821,10 @@
         <v>156</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G151" s="18">
         <v>117</v>
@@ -6861,10 +6857,10 @@
         <v>157</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G152" s="13">
         <v>111</v>
@@ -6897,10 +6893,10 @@
         <v>144</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G153" s="18">
         <v>48</v>
@@ -6933,10 +6929,10 @@
         <v>158</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G154" s="13">
         <v>9</v>
@@ -6969,10 +6965,10 @@
         <v>138</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G155" s="18">
         <v>12</v>
@@ -7005,10 +7001,10 @@
         <v>107</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G156" s="13">
         <v>3</v>
@@ -7041,10 +7037,10 @@
         <v>147</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G157" s="18">
         <v>21</v>
@@ -7077,10 +7073,10 @@
         <v>134</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G158" s="13">
         <v>105</v>
@@ -7113,10 +7109,10 @@
         <v>118</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G159" s="18">
         <v>51</v>
@@ -7149,10 +7145,10 @@
         <v>110</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G160" s="13">
         <v>26</v>
@@ -7185,10 +7181,10 @@
         <v>115</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G161" s="18">
         <v>14</v>
@@ -7221,10 +7217,10 @@
         <v>116</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G162" s="13">
         <v>2</v>
@@ -7257,10 +7253,10 @@
         <v>93</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G163" s="18">
         <v>4</v>
@@ -7293,10 +7289,10 @@
         <v>109</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G164" s="13">
         <v>20</v>
@@ -7329,10 +7325,10 @@
         <v>159</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G165" s="18">
         <v>16</v>
@@ -7365,10 +7361,10 @@
         <v>160</v>
       </c>
       <c r="E166" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F166" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="G166" s="13">
         <v>12</v>
@@ -7401,10 +7397,10 @@
         <v>161</v>
       </c>
       <c r="E167" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F167" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="F167" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="G167" s="21">
         <v>13</v>
@@ -7437,10 +7433,10 @@
         <v>115</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G168" s="13">
         <v>14</v>
@@ -7473,10 +7469,10 @@
         <v>152</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G169" s="21">
         <v>22</v>
@@ -7509,10 +7505,10 @@
         <v>118</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G170" s="13">
         <v>51</v>
@@ -7545,10 +7541,10 @@
         <v>151</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G171" s="21">
         <v>24</v>
@@ -7581,10 +7577,10 @@
         <v>116</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G172" s="13">
         <v>2</v>
@@ -7617,10 +7613,10 @@
         <v>163</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F173" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G173" s="21">
         <v>38</v>
@@ -7653,10 +7649,10 @@
         <v>164</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G174" s="13">
         <v>10</v>
@@ -7689,10 +7685,10 @@
         <v>165</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F175" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G175" s="21">
         <v>8</v>
@@ -7725,10 +7721,10 @@
         <v>166</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G176" s="13">
         <v>5</v>
@@ -7761,10 +7757,10 @@
         <v>127</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G177" s="21">
         <v>20</v>
@@ -7797,10 +7793,10 @@
         <v>110</v>
       </c>
       <c r="E178" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F178" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G178" s="13">
         <v>26</v>
@@ -7833,10 +7829,10 @@
         <v>96</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F179" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G179" s="21">
         <v>13</v>
@@ -7869,10 +7865,10 @@
         <v>130</v>
       </c>
       <c r="E180" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F180" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F180" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="G180" s="13">
         <v>8</v>
@@ -7905,10 +7901,10 @@
         <v>93</v>
       </c>
       <c r="E181" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F181" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="F181" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="G181" s="21">
         <v>8</v>
@@ -7941,10 +7937,10 @@
         <v>142</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G182" s="13">
         <v>1</v>
@@ -7977,10 +7973,10 @@
         <v>166</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F183" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G183" s="21">
         <v>5</v>
@@ -8013,10 +8009,10 @@
         <v>164</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G184" s="13">
         <v>10</v>
@@ -8049,10 +8045,10 @@
         <v>163</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G185" s="21">
         <v>38</v>
@@ -8085,10 +8081,10 @@
         <v>164</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G186" s="13">
         <v>10</v>
@@ -8121,10 +8117,10 @@
         <v>163</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G187" s="21">
         <v>38</v>
@@ -8157,10 +8153,10 @@
         <v>149</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G188" s="13">
         <v>31</v>
@@ -8193,10 +8189,10 @@
         <v>96</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G189" s="21">
         <v>13</v>
@@ -8229,10 +8225,10 @@
         <v>158</v>
       </c>
       <c r="E190" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F190" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="G190" s="13">
         <v>9</v>
@@ -8265,10 +8261,10 @@
         <v>153</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G191" s="21">
         <v>47</v>
@@ -8301,10 +8297,10 @@
         <v>119</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G192" s="13">
         <v>20</v>
@@ -8337,10 +8333,10 @@
         <v>157</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G193" s="21">
         <v>111</v>
@@ -8373,10 +8369,10 @@
         <v>156</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G194" s="13">
         <v>117</v>
@@ -8409,10 +8405,10 @@
         <v>168</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G195" s="21">
         <v>35</v>
@@ -8445,10 +8441,10 @@
         <v>143</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G196" s="13">
         <v>30</v>
@@ -8481,10 +8477,10 @@
         <v>169</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G197" s="21">
         <v>45</v>
@@ -8517,10 +8513,10 @@
         <v>170</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G198" s="13">
         <v>10</v>
@@ -8553,10 +8549,10 @@
         <v>171</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G199" s="21">
         <v>40</v>
@@ -8589,10 +8585,10 @@
         <v>172</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G200" s="13">
         <v>26</v>
@@ -8625,10 +8621,10 @@
         <v>173</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G201" s="21">
         <v>13</v>
@@ -8654,3361 +8650,2448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4294ACE-EA42-2E4B-9553-EFF45E9C82CE}">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>45307</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>8066.3</v>
       </c>
-      <c r="C2" s="31">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="32">
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
         <v>45308</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>8020.76</v>
       </c>
-      <c r="C3" s="33">
-        <v>-5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>45309</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>8103.27</v>
       </c>
-      <c r="C4" s="31">
-        <v>1.03E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32">
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
         <v>45310</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>8199</v>
       </c>
-      <c r="C5" s="33">
-        <v>1.18E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>45313</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>8213.85</v>
       </c>
-      <c r="C6" s="31">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
         <v>45314</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>8241.73</v>
       </c>
-      <c r="C7" s="33">
-        <v>3.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>45315</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>8247.0499999999993</v>
       </c>
-      <c r="C8" s="31">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
         <v>45316</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>8288.8700000000008</v>
       </c>
-      <c r="C9" s="33">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>45317</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>8279.6299999999992</v>
       </c>
-      <c r="C10" s="31">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="32">
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
         <v>45320</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>8348.27</v>
       </c>
-      <c r="C11" s="33">
-        <v>8.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>45321</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>8329.6</v>
       </c>
-      <c r="C12" s="31">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
         <v>45322</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>8188.41</v>
       </c>
-      <c r="C13" s="33">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>45323</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>8304.4500000000007</v>
       </c>
-      <c r="C14" s="31">
-        <v>1.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
         <v>45324</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>8406.59</v>
       </c>
-      <c r="C15" s="33">
-        <v>1.23E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>45327</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>8387.4699999999993</v>
       </c>
-      <c r="C16" s="31">
-        <v>-2.3E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
         <v>45328</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="33">
         <v>8403.52</v>
       </c>
-      <c r="C17" s="33">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>45329</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="32">
         <v>8476.6</v>
       </c>
-      <c r="C18" s="31">
-        <v>8.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
         <v>45330</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>8487.9</v>
       </c>
-      <c r="C19" s="33">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>45331</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="32">
         <v>8541.2099999999991</v>
       </c>
-      <c r="C20" s="31">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="32">
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="31">
         <v>45334</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>8527.27</v>
       </c>
-      <c r="C21" s="33">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>45335</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="32">
         <v>8411.39</v>
       </c>
-      <c r="C22" s="31">
-        <v>-1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="31">
         <v>45336</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="33">
         <v>8493.81</v>
       </c>
-      <c r="C23" s="33">
-        <v>9.7999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>45337</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>8526.93</v>
       </c>
-      <c r="C24" s="31">
-        <v>3.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
         <v>45338</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="33">
         <v>8485.75</v>
       </c>
-      <c r="C25" s="33">
-        <v>-4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>45342</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="32">
         <v>8431.0300000000007</v>
       </c>
-      <c r="C26" s="31">
-        <v>-6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
         <v>45343</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="33">
         <v>8438.18</v>
       </c>
-      <c r="C27" s="33">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>45344</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="32">
         <v>8631.31</v>
       </c>
-      <c r="C28" s="31">
-        <v>2.29E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="32">
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
         <v>45345</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="33">
         <v>8630.44</v>
       </c>
-      <c r="C29" s="33">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>45348</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>8600.86</v>
       </c>
-      <c r="C30" s="31">
-        <v>-3.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="32">
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
         <v>45349</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>8614.6299999999992</v>
       </c>
-      <c r="C31" s="33">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>45350</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="32">
         <v>8590.6200000000008</v>
       </c>
-      <c r="C32" s="31">
-        <v>-2.8E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="32">
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="31">
         <v>45351</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>8643</v>
       </c>
-      <c r="C33" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>45352</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="32">
         <v>8725.3799999999992</v>
       </c>
-      <c r="C34" s="31">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="32">
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
         <v>45355</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>8707.7999999999993</v>
       </c>
-      <c r="C35" s="33">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>45356</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="32">
         <v>8604.57</v>
       </c>
-      <c r="C36" s="31">
-        <v>-1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="32">
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
         <v>45357</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="33">
         <v>8650.5300000000007</v>
       </c>
-      <c r="C37" s="33">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>45358</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="32">
         <v>8758.64</v>
       </c>
-      <c r="C38" s="31">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="32">
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
         <v>45359</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="33">
         <v>8686.42</v>
       </c>
-      <c r="C39" s="33">
-        <v>-8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>45362</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="32">
         <v>8673.48</v>
       </c>
-      <c r="C40" s="31">
-        <v>-1.5E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="31">
         <v>45363</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>8783.36</v>
       </c>
-      <c r="C41" s="33">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <v>45364</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="32">
         <v>8757.39</v>
       </c>
-      <c r="C42" s="31">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="32">
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="31">
         <v>45365</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="33">
         <v>8742.51</v>
       </c>
-      <c r="C43" s="33">
-        <v>-1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="30">
         <v>45366</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="32">
         <v>8676.6</v>
       </c>
-      <c r="C44" s="31">
-        <v>-7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="32">
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="31">
         <v>45369</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="33">
         <v>8734.7900000000009</v>
       </c>
-      <c r="C45" s="33">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="30">
         <v>45370</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="32">
         <v>8786.5400000000009</v>
       </c>
-      <c r="C46" s="31">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="32">
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="31">
         <v>45371</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="33">
         <v>8862.1299999999992</v>
       </c>
-      <c r="C47" s="33">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="30">
         <v>45372</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="32">
         <v>8883.5300000000007</v>
       </c>
-      <c r="C48" s="31">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="32">
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="31">
         <v>45373</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="33">
         <v>8888.7800000000007</v>
       </c>
-      <c r="C49" s="33">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="30">
         <v>45376</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="32">
         <v>8861.64</v>
       </c>
-      <c r="C50" s="31">
-        <v>-3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="32">
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="31">
         <v>45377</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="33">
         <v>8830.7000000000007</v>
       </c>
-      <c r="C51" s="33">
-        <v>-3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="30">
         <v>45378</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="32">
         <v>8898.8799999999992</v>
       </c>
-      <c r="C52" s="31">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="32">
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="31">
         <v>45379</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="33">
         <v>8901.24</v>
       </c>
-      <c r="C53" s="33">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="30">
         <v>45383</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B54" s="32">
         <v>8892.98</v>
       </c>
-      <c r="C54" s="31">
-        <v>-8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="32">
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="31">
         <v>45384</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="33">
         <v>8825.9</v>
       </c>
-      <c r="C55" s="33">
-        <v>-7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="30">
         <v>45385</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="32">
         <v>8838.5400000000009</v>
       </c>
-      <c r="C56" s="31">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="32">
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="31">
         <v>45386</v>
       </c>
-      <c r="B57" s="35">
+      <c r="B57" s="33">
         <v>8727.85</v>
       </c>
-      <c r="C57" s="33">
-        <v>-1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="30">
         <v>45387</v>
       </c>
-      <c r="B58" s="34">
+      <c r="B58" s="32">
         <v>8828.7099999999991</v>
       </c>
-      <c r="C58" s="31">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="32">
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="31">
         <v>45390</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B59" s="33">
         <v>8817.64</v>
       </c>
-      <c r="C59" s="33">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>45391</v>
       </c>
-      <c r="B60" s="34">
+      <c r="B60" s="32">
         <v>8837.6200000000008</v>
       </c>
-      <c r="C60" s="31">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="32">
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="31">
         <v>45392</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="33">
         <v>8769.2199999999993</v>
       </c>
-      <c r="C61" s="33">
-        <v>-7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="30">
         <v>45393</v>
       </c>
-      <c r="B62" s="34">
+      <c r="B62" s="32">
         <v>8854.02</v>
       </c>
-      <c r="C62" s="31">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="32">
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="31">
         <v>45394</v>
       </c>
-      <c r="B63" s="35">
+      <c r="B63" s="33">
         <v>8724.76</v>
       </c>
-      <c r="C63" s="33">
-        <v>-1.46E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="30">
         <v>45397</v>
       </c>
-      <c r="B64" s="34">
+      <c r="B64" s="32">
         <v>8612.14</v>
       </c>
-      <c r="C64" s="31">
-        <v>-1.29E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="32">
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="31">
         <v>45398</v>
       </c>
-      <c r="B65" s="35">
+      <c r="B65" s="33">
         <v>8602.84</v>
       </c>
-      <c r="C65" s="33">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="30">
         <v>45399</v>
       </c>
-      <c r="B66" s="34">
+      <c r="B66" s="32">
         <v>8543.41</v>
       </c>
-      <c r="C66" s="31">
-        <v>-6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="32">
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="31">
         <v>45400</v>
       </c>
-      <c r="B67" s="35">
+      <c r="B67" s="33">
         <v>8516.3700000000008</v>
       </c>
-      <c r="C67" s="33">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="30">
         <v>45401</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="32">
         <v>8410.26</v>
       </c>
-      <c r="C68" s="31">
-        <v>-1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="32">
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="31">
         <v>45404</v>
       </c>
-      <c r="B69" s="35">
+      <c r="B69" s="33">
         <v>8479.52</v>
       </c>
-      <c r="C69" s="33">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="30">
         <v>45405</v>
       </c>
-      <c r="B70" s="34">
+      <c r="B70" s="32">
         <v>8588.75</v>
       </c>
-      <c r="C70" s="31">
-        <v>1.29E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="32">
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="31">
         <v>45406</v>
       </c>
-      <c r="B71" s="35">
+      <c r="B71" s="33">
         <v>8591.74</v>
       </c>
-      <c r="C71" s="33">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="30">
         <v>45407</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="32">
         <v>8553.2800000000007</v>
       </c>
-      <c r="C72" s="31">
-        <v>-4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="32">
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="31">
         <v>45408</v>
       </c>
-      <c r="B73" s="35">
+      <c r="B73" s="33">
         <v>8659.16</v>
       </c>
-      <c r="C73" s="33">
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="30">
         <v>45411</v>
       </c>
-      <c r="B74" s="34">
+      <c r="B74" s="32">
         <v>8691.98</v>
       </c>
-      <c r="C74" s="31">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="32">
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="31">
         <v>45412</v>
       </c>
-      <c r="B75" s="35">
+      <c r="B75" s="33">
         <v>8547.7900000000009</v>
       </c>
-      <c r="C75" s="33">
-        <v>-1.66E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="30">
         <v>45413</v>
       </c>
-      <c r="B76" s="34">
+      <c r="B76" s="32">
         <v>8513.1</v>
       </c>
-      <c r="C76" s="31">
-        <v>-4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="32">
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="31">
         <v>45414</v>
       </c>
-      <c r="B77" s="35">
+      <c r="B77" s="33">
         <v>8598.9599999999991</v>
       </c>
-      <c r="C77" s="33">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="30">
         <v>45415</v>
       </c>
-      <c r="B78" s="34">
+      <c r="B78" s="32">
         <v>8720.6200000000008</v>
       </c>
-      <c r="C78" s="31">
-        <v>1.41E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="32">
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="31">
         <v>45418</v>
       </c>
-      <c r="B79" s="35">
+      <c r="B79" s="33">
         <v>8811.32</v>
       </c>
-      <c r="C79" s="33">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="30">
         <v>45419</v>
       </c>
-      <c r="B80" s="34">
+      <c r="B80" s="32">
         <v>8818.93</v>
       </c>
-      <c r="C80" s="31">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="32">
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="31">
         <v>45420</v>
       </c>
-      <c r="B81" s="35">
+      <c r="B81" s="33">
         <v>8815.5400000000009</v>
       </c>
-      <c r="C81" s="33">
-        <v>-4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="30">
         <v>45421</v>
       </c>
-      <c r="B82" s="34">
+      <c r="B82" s="32">
         <v>8855</v>
       </c>
-      <c r="C82" s="31">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="32">
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="31">
         <v>45422</v>
       </c>
-      <c r="B83" s="35">
+      <c r="B83" s="33">
         <v>8867.9699999999993</v>
       </c>
-      <c r="C83" s="33">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="30">
         <v>45425</v>
       </c>
-      <c r="B84" s="34">
+      <c r="B84" s="32">
         <v>8870.5300000000007</v>
       </c>
-      <c r="C84" s="31">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="32">
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="31">
         <v>45426</v>
       </c>
-      <c r="B85" s="35">
+      <c r="B85" s="33">
         <v>8914.11</v>
       </c>
-      <c r="C85" s="33">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="30">
         <v>45427</v>
       </c>
-      <c r="B86" s="34">
+      <c r="B86" s="32">
         <v>9024.9699999999993</v>
       </c>
-      <c r="C86" s="31">
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="32">
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="31">
         <v>45428</v>
       </c>
-      <c r="B87" s="35">
+      <c r="B87" s="33">
         <v>9004.84</v>
       </c>
-      <c r="C87" s="33">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="30">
         <v>45429</v>
       </c>
-      <c r="B88" s="34">
+      <c r="B88" s="32">
         <v>9009.1299999999992</v>
       </c>
-      <c r="C88" s="31">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="32">
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="31">
         <v>45432</v>
       </c>
-      <c r="B89" s="35">
+      <c r="B89" s="33">
         <v>9037.92</v>
       </c>
-      <c r="C89" s="33">
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="30">
         <v>45433</v>
       </c>
-      <c r="B90" s="34">
+      <c r="B90" s="32">
         <v>9056.98</v>
       </c>
-      <c r="C90" s="31">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="32">
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="31">
         <v>45434</v>
       </c>
-      <c r="B91" s="35">
+      <c r="B91" s="33">
         <v>9037</v>
       </c>
-      <c r="C91" s="33">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="30">
         <v>45435</v>
       </c>
-      <c r="B92" s="34">
+      <c r="B92" s="32">
         <v>8984.5</v>
       </c>
-      <c r="C92" s="31">
-        <v>-5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="32">
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="31">
         <v>45436</v>
       </c>
-      <c r="B93" s="35">
+      <c r="B93" s="33">
         <v>9049.34</v>
       </c>
-      <c r="C93" s="33">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="30">
         <v>45440</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="32">
         <v>9068.4500000000007</v>
       </c>
-      <c r="C94" s="31">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="32">
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="31">
         <v>45441</v>
       </c>
-      <c r="B95" s="35">
+      <c r="B95" s="33">
         <v>9003.5499999999993</v>
       </c>
-      <c r="C95" s="33">
-        <v>-7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="30">
         <v>45442</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="32">
         <v>8929.5499999999993</v>
       </c>
-      <c r="C96" s="31">
-        <v>-8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="32">
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="31">
         <v>45443</v>
       </c>
-      <c r="B97" s="35">
+      <c r="B97" s="33">
         <v>8991.2099999999991</v>
       </c>
-      <c r="C97" s="33">
-        <v>6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="30">
         <v>45446</v>
       </c>
-      <c r="B98" s="34">
+      <c r="B98" s="32">
         <v>9012.73</v>
       </c>
-      <c r="C98" s="31">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="32">
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="31">
         <v>45447</v>
       </c>
-      <c r="B99" s="35">
+      <c r="B99" s="33">
         <v>9032.8700000000008</v>
       </c>
-      <c r="C99" s="33">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="30">
         <v>45448</v>
       </c>
-      <c r="B100" s="34">
+      <c r="B100" s="32">
         <v>9156.09</v>
       </c>
-      <c r="C100" s="31">
-        <v>1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="32">
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="31">
         <v>45449</v>
       </c>
-      <c r="B101" s="35">
+      <c r="B101" s="33">
         <v>9153.5300000000007</v>
       </c>
-      <c r="C101" s="33">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="30">
         <v>45450</v>
       </c>
-      <c r="B102" s="34">
+      <c r="B102" s="32">
         <v>9139.57</v>
       </c>
-      <c r="C102" s="31">
-        <v>-1.5E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="32">
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="31">
         <v>45453</v>
       </c>
-      <c r="B103" s="35">
+      <c r="B103" s="33">
         <v>9172.15</v>
       </c>
-      <c r="C103" s="33">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="30">
         <v>45454</v>
       </c>
-      <c r="B104" s="34">
+      <c r="B104" s="32">
         <v>9218.4</v>
       </c>
-      <c r="C104" s="31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="32">
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="31">
         <v>45455</v>
       </c>
-      <c r="B105" s="35">
+      <c r="B105" s="33">
         <v>9307.4599999999991</v>
       </c>
-      <c r="C105" s="33">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="30">
         <v>45456</v>
       </c>
-      <c r="B106" s="34">
+      <c r="B106" s="32">
         <v>9334.56</v>
       </c>
-      <c r="C106" s="31">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="32">
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="31">
         <v>45457</v>
       </c>
-      <c r="B107" s="35">
+      <c r="B107" s="33">
         <v>9335.89</v>
       </c>
-      <c r="C107" s="33">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="30">
         <v>45460</v>
       </c>
-      <c r="B108" s="34">
+      <c r="B108" s="32">
         <v>9411.01</v>
       </c>
-      <c r="C108" s="31">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="32">
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="31">
         <v>45461</v>
       </c>
-      <c r="B109" s="35">
+      <c r="B109" s="33">
         <v>9429.44</v>
       </c>
-      <c r="C109" s="33">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="30">
         <v>45463</v>
       </c>
-      <c r="B110" s="34">
+      <c r="B110" s="32">
         <v>9394.73</v>
       </c>
-      <c r="C110" s="31">
-        <v>-3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="32">
+    </row>
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="31">
         <v>45464</v>
       </c>
-      <c r="B111" s="35">
+      <c r="B111" s="33">
         <v>9381.61</v>
       </c>
-      <c r="C111" s="33">
-        <v>-1.4E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="30">
         <v>45467</v>
       </c>
-      <c r="B112" s="34">
+      <c r="B112" s="32">
         <v>9333.76</v>
       </c>
-      <c r="C112" s="31">
-        <v>-5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="32">
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="31">
         <v>45468</v>
       </c>
-      <c r="B113" s="35">
+      <c r="B113" s="33">
         <v>9391.5300000000007</v>
       </c>
-      <c r="C113" s="33">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="30">
         <v>45469</v>
       </c>
-      <c r="B114" s="34">
+      <c r="B114" s="32">
         <v>9415.59</v>
       </c>
-      <c r="C114" s="31">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="32">
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="31">
         <v>45470</v>
       </c>
-      <c r="B115" s="35">
+      <c r="B115" s="33">
         <v>9426.82</v>
       </c>
-      <c r="C115" s="33">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="30">
         <v>45471</v>
       </c>
-      <c r="B116" s="34">
+      <c r="B116" s="32">
         <v>9375.7199999999993</v>
       </c>
-      <c r="C116" s="31">
-        <v>-5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="32">
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="31">
         <v>45474</v>
       </c>
-      <c r="B117" s="35">
+      <c r="B117" s="33">
         <v>9404.5300000000007</v>
       </c>
-      <c r="C117" s="33">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="30">
         <v>45475</v>
       </c>
-      <c r="B118" s="34">
+      <c r="B118" s="32">
         <v>9456.7099999999991</v>
       </c>
-      <c r="C118" s="31">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="32">
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="31">
         <v>45476</v>
       </c>
-      <c r="B119" s="35">
+      <c r="B119" s="33">
         <v>9514.82</v>
       </c>
-      <c r="C119" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="30">
         <v>45478</v>
       </c>
-      <c r="B120" s="34">
+      <c r="B120" s="32">
         <v>9579.2199999999993</v>
       </c>
-      <c r="C120" s="31">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="32">
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="31">
         <v>45481</v>
       </c>
-      <c r="B121" s="35">
+      <c r="B121" s="33">
         <v>9592.5499999999993</v>
       </c>
-      <c r="C121" s="33">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="30">
         <v>45482</v>
       </c>
-      <c r="B122" s="34">
+      <c r="B122" s="32">
         <v>9591.8799999999992</v>
       </c>
-      <c r="C122" s="31">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="32">
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="31">
         <v>45483</v>
       </c>
-      <c r="B123" s="35">
+      <c r="B123" s="33">
         <v>9699.73</v>
       </c>
-      <c r="C123" s="33">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="30">
         <v>45484</v>
       </c>
-      <c r="B124" s="34">
+      <c r="B124" s="32">
         <v>9582.7000000000007</v>
       </c>
-      <c r="C124" s="31">
-        <v>-1.21E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="32">
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="31">
         <v>45485</v>
       </c>
-      <c r="B125" s="35">
+      <c r="B125" s="33">
         <v>9639.86</v>
       </c>
-      <c r="C125" s="33">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="30">
         <v>45488</v>
       </c>
-      <c r="B126" s="34">
+      <c r="B126" s="32">
         <v>9651.56</v>
       </c>
-      <c r="C126" s="31">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="32">
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="31">
         <v>45489</v>
       </c>
-      <c r="B127" s="35">
+      <c r="B127" s="33">
         <v>9703.94</v>
       </c>
-      <c r="C127" s="33">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="30">
         <v>45490</v>
       </c>
-      <c r="B128" s="34">
+      <c r="B128" s="32">
         <v>9531.0499999999993</v>
       </c>
-      <c r="C128" s="31">
-        <v>-1.78E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="32">
+    </row>
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="31">
         <v>45491</v>
       </c>
-      <c r="B129" s="35">
+      <c r="B129" s="33">
         <v>9463.9599999999991</v>
       </c>
-      <c r="C129" s="33">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="30">
         <v>45492</v>
       </c>
-      <c r="B130" s="34">
+      <c r="B130" s="32">
         <v>9399.5300000000007</v>
       </c>
-      <c r="C130" s="31">
-        <v>-6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="32">
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="31">
         <v>45495</v>
       </c>
-      <c r="B131" s="35">
+      <c r="B131" s="33">
         <v>9507.77</v>
       </c>
-      <c r="C131" s="33">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="30">
         <v>45496</v>
       </c>
-      <c r="B132" s="34">
+      <c r="B132" s="32">
         <v>9489.66</v>
       </c>
-      <c r="C132" s="31">
-        <v>-1.9E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="32">
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="31">
         <v>45497</v>
       </c>
-      <c r="B133" s="35">
+      <c r="B133" s="33">
         <v>9251.52</v>
       </c>
-      <c r="C133" s="33">
-        <v>-2.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="30">
         <v>45498</v>
       </c>
-      <c r="B134" s="34">
+      <c r="B134" s="32">
         <v>9192.8700000000008</v>
       </c>
-      <c r="C134" s="31">
-        <v>-6.3E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="32">
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="31">
         <v>45499</v>
       </c>
-      <c r="B135" s="35">
+      <c r="B135" s="33">
         <v>9288.6200000000008</v>
       </c>
-      <c r="C135" s="33">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="30">
         <v>45502</v>
       </c>
-      <c r="B136" s="34">
+      <c r="B136" s="32">
         <v>9299.06</v>
       </c>
-      <c r="C136" s="31">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="32">
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="31">
         <v>45503</v>
       </c>
-      <c r="B137" s="35">
+      <c r="B137" s="33">
         <v>9225.65</v>
       </c>
-      <c r="C137" s="33">
-        <v>-7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="30">
         <v>45504</v>
       </c>
-      <c r="B138" s="34">
+      <c r="B138" s="32">
         <v>9402.18</v>
       </c>
-      <c r="C138" s="31">
-        <v>1.9099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="32">
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="31">
         <v>45505</v>
       </c>
-      <c r="B139" s="35">
+      <c r="B139" s="33">
         <v>9266.3700000000008</v>
       </c>
-      <c r="C139" s="33">
-        <v>-1.44E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="30">
         <v>45506</v>
       </c>
-      <c r="B140" s="34">
+      <c r="B140" s="32">
         <v>9099.5499999999993</v>
       </c>
-      <c r="C140" s="31">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="32">
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="31">
         <v>45509</v>
       </c>
-      <c r="B141" s="35">
+      <c r="B141" s="33">
         <v>8825.51</v>
       </c>
-      <c r="C141" s="33">
-        <v>-3.0099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="30">
         <v>45510</v>
       </c>
-      <c r="B142" s="34">
+      <c r="B142" s="32">
         <v>8908.0499999999993</v>
       </c>
-      <c r="C142" s="31">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="32">
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="31">
         <v>45511</v>
       </c>
-      <c r="B143" s="35">
+      <c r="B143" s="33">
         <v>8827.93</v>
       </c>
-      <c r="C143" s="33">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="30">
         <v>45512</v>
       </c>
-      <c r="B144" s="34">
+      <c r="B144" s="32">
         <v>9044.34</v>
       </c>
-      <c r="C144" s="31">
-        <v>2.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="32">
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="31">
         <v>45513</v>
       </c>
-      <c r="B145" s="35">
+      <c r="B145" s="33">
         <v>9088.26</v>
       </c>
-      <c r="C145" s="33">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="30">
         <v>45516</v>
       </c>
-      <c r="B146" s="34">
+      <c r="B146" s="32">
         <v>9098.2000000000007</v>
       </c>
-      <c r="C146" s="31">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="32">
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="31">
         <v>45517</v>
       </c>
-      <c r="B147" s="35">
+      <c r="B147" s="33">
         <v>9265.73</v>
       </c>
-      <c r="C147" s="33">
-        <v>1.84E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="30">
         <v>45518</v>
       </c>
-      <c r="B148" s="34">
+      <c r="B148" s="32">
         <v>9288.66</v>
       </c>
-      <c r="C148" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="32">
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="31">
         <v>45519</v>
       </c>
-      <c r="B149" s="35">
+      <c r="B149" s="33">
         <v>9455.67</v>
       </c>
-      <c r="C149" s="33">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="30">
         <v>45520</v>
       </c>
-      <c r="B150" s="34">
+      <c r="B150" s="32">
         <v>9470.0400000000009</v>
       </c>
-      <c r="C150" s="31">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="32">
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="31">
         <v>45523</v>
       </c>
-      <c r="B151" s="35">
+      <c r="B151" s="33">
         <v>9569.08</v>
       </c>
-      <c r="C151" s="33">
-        <v>1.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="30">
         <v>45524</v>
       </c>
-      <c r="B152" s="34">
+      <c r="B152" s="32">
         <v>9551.5</v>
       </c>
-      <c r="C152" s="31">
-        <v>-1.8E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="32">
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="31">
         <v>45525</v>
       </c>
-      <c r="B153" s="35">
+      <c r="B153" s="33">
         <v>9600.6299999999992</v>
       </c>
-      <c r="C153" s="33">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="30">
         <v>45526</v>
       </c>
-      <c r="B154" s="34">
+      <c r="B154" s="32">
         <v>9491.33</v>
       </c>
-      <c r="C154" s="31">
-        <v>-1.14E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="32">
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="31">
         <v>45527</v>
       </c>
-      <c r="B155" s="35">
+      <c r="B155" s="33">
         <v>9601.65</v>
       </c>
-      <c r="C155" s="33">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="30">
         <v>45530</v>
       </c>
-      <c r="B156" s="34">
+      <c r="B156" s="32">
         <v>9561.7800000000007</v>
       </c>
-      <c r="C156" s="31">
-        <v>-4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="32">
+    </row>
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="31">
         <v>45531</v>
       </c>
-      <c r="B157" s="35">
+      <c r="B157" s="33">
         <v>9572.5499999999993</v>
       </c>
-      <c r="C157" s="33">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="30">
         <v>45532</v>
       </c>
-      <c r="B158" s="34">
+      <c r="B158" s="32">
         <v>9501.36</v>
       </c>
-      <c r="C158" s="31">
-        <v>-7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="32">
+    </row>
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="31">
         <v>45533</v>
       </c>
-      <c r="B159" s="35">
+      <c r="B159" s="33">
         <v>9489.7900000000009</v>
       </c>
-      <c r="C159" s="33">
-        <v>-1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="30">
         <v>45534</v>
       </c>
-      <c r="B160" s="34">
+      <c r="B160" s="32">
         <v>9587.5</v>
       </c>
-      <c r="C160" s="31">
-        <v>1.03E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="32">
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="31">
         <v>45538</v>
       </c>
-      <c r="B161" s="35">
+      <c r="B161" s="33">
         <v>9357.7199999999993</v>
       </c>
-      <c r="C161" s="33">
-        <v>-2.4E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="30">
         <v>45539</v>
       </c>
-      <c r="B162" s="34">
+      <c r="B162" s="32">
         <v>9338.2099999999991</v>
       </c>
-      <c r="C162" s="31">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="32">
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="31">
         <v>45540</v>
       </c>
-      <c r="B163" s="35">
+      <c r="B163" s="33">
         <v>9321.48</v>
       </c>
-      <c r="C163" s="33">
-        <v>-1.8E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="30">
         <v>45541</v>
       </c>
-      <c r="B164" s="34">
+      <c r="B164" s="32">
         <v>9154.24</v>
       </c>
-      <c r="C164" s="31">
-        <v>-1.7899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="32">
+    </row>
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="31">
         <v>45544</v>
       </c>
-      <c r="B165" s="35">
+      <c r="B165" s="33">
         <v>9257.2199999999993</v>
       </c>
-      <c r="C165" s="33">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="30">
         <v>45545</v>
       </c>
-      <c r="B166" s="34">
+      <c r="B166" s="32">
         <v>9316.35</v>
       </c>
-      <c r="C166" s="31">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="32">
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="31">
         <v>45546</v>
       </c>
-      <c r="B167" s="35">
+      <c r="B167" s="33">
         <v>9440.84</v>
       </c>
-      <c r="C167" s="33">
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="30">
         <v>45547</v>
       </c>
-      <c r="B168" s="34">
+      <c r="B168" s="32">
         <v>9522.67</v>
       </c>
-      <c r="C168" s="31">
-        <v>8.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="32">
+    </row>
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="31">
         <v>45548</v>
       </c>
-      <c r="B169" s="35">
+      <c r="B169" s="33">
         <v>9577.86</v>
       </c>
-      <c r="C169" s="33">
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="30">
         <v>45551</v>
       </c>
-      <c r="B170" s="34">
+      <c r="B170" s="32">
         <v>9574.7900000000009</v>
       </c>
-      <c r="C170" s="31">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="32">
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="31">
         <v>45552</v>
       </c>
-      <c r="B171" s="35">
+      <c r="B171" s="33">
         <v>9572.6299999999992</v>
       </c>
-      <c r="C171" s="33">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="30">
         <v>45553</v>
       </c>
-      <c r="B172" s="34">
+      <c r="B172" s="32">
         <v>9544.7800000000007</v>
       </c>
-      <c r="C172" s="31">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="32">
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="31">
         <v>45554</v>
       </c>
-      <c r="B173" s="35">
+      <c r="B173" s="33">
         <v>9720.42</v>
       </c>
-      <c r="C173" s="33">
-        <v>1.84E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="30">
         <v>45555</v>
       </c>
-      <c r="B174" s="34">
+      <c r="B174" s="32">
         <v>9703.0300000000007</v>
       </c>
-      <c r="C174" s="31">
-        <v>-1.8E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="32">
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="31">
         <v>45558</v>
       </c>
-      <c r="B175" s="35">
+      <c r="B175" s="33">
         <v>9730.77</v>
       </c>
-      <c r="C175" s="33">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="30">
         <v>45559</v>
       </c>
-      <c r="B176" s="34">
+      <c r="B176" s="32">
         <v>9773.65</v>
       </c>
-      <c r="C176" s="31">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="32">
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="31">
         <v>45560</v>
       </c>
-      <c r="B177" s="35">
+      <c r="B177" s="33">
         <v>9762.23</v>
       </c>
-      <c r="C177" s="33">
-        <v>-1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="30">
         <v>45561</v>
       </c>
-      <c r="B178" s="34">
+      <c r="B178" s="32">
         <v>9804</v>
       </c>
-      <c r="C178" s="31">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="32">
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="31">
         <v>45562</v>
       </c>
-      <c r="B179" s="35">
+      <c r="B179" s="33">
         <v>9784.09</v>
       </c>
-      <c r="C179" s="33">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="30">
         <v>45565</v>
       </c>
-      <c r="B180" s="34">
+      <c r="B180" s="32">
         <v>9826.59</v>
       </c>
-      <c r="C180" s="31">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="32">
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="31">
         <v>45566</v>
       </c>
-      <c r="B181" s="35">
+      <c r="B181" s="33">
         <v>9728.51</v>
       </c>
-      <c r="C181" s="33">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="30">
         <v>45567</v>
       </c>
-      <c r="B182" s="34">
+      <c r="B182" s="32">
         <v>9730.17</v>
       </c>
-      <c r="C182" s="31">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A183" s="32">
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="31">
         <v>45568</v>
       </c>
-      <c r="B183" s="35">
+      <c r="B183" s="33">
         <v>9720.2199999999993</v>
       </c>
-      <c r="C183" s="33">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="30">
         <v>45569</v>
       </c>
-      <c r="B184" s="34">
+      <c r="B184" s="32">
         <v>9801.5</v>
       </c>
-      <c r="C184" s="31">
-        <v>8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="32">
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="31">
         <v>45572</v>
       </c>
-      <c r="B185" s="35">
+      <c r="B185" s="33">
         <v>9711.2800000000007</v>
       </c>
-      <c r="C185" s="33">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="30">
         <v>45573</v>
       </c>
-      <c r="B186" s="34">
+      <c r="B186" s="32">
         <v>9813.2099999999991</v>
       </c>
-      <c r="C186" s="31">
-        <v>1.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="32">
+    </row>
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="31">
         <v>45574</v>
       </c>
-      <c r="B187" s="35">
+      <c r="B187" s="33">
         <v>9882.49</v>
       </c>
-      <c r="C187" s="33">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="30">
         <v>45575</v>
       </c>
-      <c r="B188" s="34">
+      <c r="B188" s="32">
         <v>9866.75</v>
       </c>
-      <c r="C188" s="31">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A189" s="32">
+    </row>
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="31">
         <v>45576</v>
       </c>
-      <c r="B189" s="35">
+      <c r="B189" s="33">
         <v>9905.09</v>
       </c>
-      <c r="C189" s="33">
-        <v>3.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="30">
         <v>45579</v>
       </c>
-      <c r="B190" s="34">
+      <c r="B190" s="32">
         <v>9984.56</v>
       </c>
-      <c r="C190" s="31">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="32">
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="31">
         <v>45580</v>
       </c>
-      <c r="B191" s="35">
+      <c r="B191" s="33">
         <v>9888.2099999999991</v>
       </c>
-      <c r="C191" s="33">
-        <v>-9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="30">
         <v>45581</v>
       </c>
-      <c r="B192" s="34">
+      <c r="B192" s="32">
         <v>9921.2999999999993</v>
       </c>
-      <c r="C192" s="31">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="32">
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="31">
         <v>45582</v>
       </c>
-      <c r="B193" s="35">
+      <c r="B193" s="33">
         <v>9916.15</v>
       </c>
-      <c r="C193" s="33">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="30">
         <v>45583</v>
       </c>
-      <c r="B194" s="34">
+      <c r="B194" s="32">
         <v>9961.01</v>
       </c>
-      <c r="C194" s="31">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="32">
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="31">
         <v>45586</v>
       </c>
-      <c r="B195" s="35">
+      <c r="B195" s="33">
         <v>9959.27</v>
       </c>
-      <c r="C195" s="33">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="30">
         <v>45587</v>
       </c>
-      <c r="B196" s="34">
+      <c r="B196" s="32">
         <v>9955.1</v>
       </c>
-      <c r="C196" s="31">
-        <v>-4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="32">
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="31">
         <v>45588</v>
       </c>
-      <c r="B197" s="35">
+      <c r="B197" s="33">
         <v>9846.17</v>
       </c>
-      <c r="C197" s="33">
-        <v>-1.09E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="30">
         <v>45589</v>
       </c>
-      <c r="B198" s="34">
+      <c r="B198" s="32">
         <v>9869.4500000000007</v>
       </c>
-      <c r="C198" s="31">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A199" s="32">
+    </row>
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="31">
         <v>45590</v>
       </c>
-      <c r="B199" s="35">
+      <c r="B199" s="33">
         <v>9884.35</v>
       </c>
-      <c r="C199" s="33">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="30">
         <v>45593</v>
       </c>
-      <c r="B200" s="34">
+      <c r="B200" s="32">
         <v>9897.08</v>
       </c>
-      <c r="C200" s="31">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="32">
+    </row>
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="31">
         <v>45594</v>
       </c>
-      <c r="B201" s="35">
+      <c r="B201" s="33">
         <v>9928.0300000000007</v>
       </c>
-      <c r="C201" s="33">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="30">
         <v>45595</v>
       </c>
-      <c r="B202" s="34">
+      <c r="B202" s="32">
         <v>9881.77</v>
       </c>
-      <c r="C202" s="31">
-        <v>-4.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="32">
+    </row>
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="31">
         <v>45596</v>
       </c>
-      <c r="B203" s="35">
+      <c r="B203" s="33">
         <v>9687.92</v>
       </c>
-      <c r="C203" s="33">
-        <v>-1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="30">
         <v>45597</v>
       </c>
-      <c r="B204" s="34">
+      <c r="B204" s="32">
         <v>9736.36</v>
       </c>
-      <c r="C204" s="31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="32">
+    </row>
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="31">
         <v>45600</v>
       </c>
-      <c r="B205" s="35">
+      <c r="B205" s="33">
         <v>9711.9699999999993</v>
       </c>
-      <c r="C205" s="33">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="30">
         <v>45601</v>
       </c>
-      <c r="B206" s="34">
+      <c r="B206" s="32">
         <v>9834.4599999999991</v>
       </c>
-      <c r="C206" s="31">
-        <v>1.26E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="32">
+    </row>
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="31">
         <v>45602</v>
       </c>
-      <c r="B207" s="35">
+      <c r="B207" s="33">
         <v>10040.99</v>
       </c>
-      <c r="C207" s="33">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="30">
         <v>45603</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="32">
         <v>10153.280000000001</v>
       </c>
-      <c r="C208" s="31">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="32">
+    </row>
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="31">
         <v>45604</v>
       </c>
-      <c r="B209" s="35">
+      <c r="B209" s="33">
         <v>10183.120000000001</v>
       </c>
-      <c r="C209" s="33">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="30">
         <v>45607</v>
       </c>
-      <c r="B210" s="34">
+      <c r="B210" s="32">
         <v>10174.049999999999</v>
       </c>
-      <c r="C210" s="31">
-        <v>-8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="32">
+    </row>
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="31">
         <v>45608</v>
       </c>
-      <c r="B211" s="35">
+      <c r="B211" s="33">
         <v>10148.1</v>
       </c>
-      <c r="C211" s="33">
-        <v>-2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="30">
         <v>45609</v>
       </c>
-      <c r="B212" s="34">
+      <c r="B212" s="32">
         <v>10148.219999999999</v>
       </c>
-      <c r="C212" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="32">
+    </row>
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="31">
         <v>45610</v>
       </c>
-      <c r="B213" s="35">
+      <c r="B213" s="33">
         <v>10082.969999999999</v>
       </c>
-      <c r="C213" s="33">
-        <v>-6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="30">
         <v>45611</v>
       </c>
-      <c r="B214" s="34">
+      <c r="B214" s="32">
         <v>9916.7199999999993</v>
       </c>
-      <c r="C214" s="31">
-        <v>-1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="32">
+    </row>
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="31">
         <v>45614</v>
       </c>
-      <c r="B215" s="35">
+      <c r="B215" s="33">
         <v>9958.41</v>
       </c>
-      <c r="C215" s="33">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="30">
         <v>45615</v>
       </c>
-      <c r="B216" s="34">
+      <c r="B216" s="32">
         <v>10014.879999999999</v>
       </c>
-      <c r="C216" s="31">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="32">
+    </row>
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="31">
         <v>45616</v>
       </c>
-      <c r="B217" s="35">
+      <c r="B217" s="33">
         <v>10020.370000000001</v>
       </c>
-      <c r="C217" s="33">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="30">
         <v>45617</v>
       </c>
-      <c r="B218" s="34">
+      <c r="B218" s="32">
         <v>10062.780000000001</v>
       </c>
-      <c r="C218" s="31">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="32">
+    </row>
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="31">
         <v>45618</v>
       </c>
-      <c r="B219" s="35">
+      <c r="B219" s="33">
         <v>10084.15</v>
       </c>
-      <c r="C219" s="33">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="30">
         <v>45621</v>
       </c>
-      <c r="B220" s="34">
+      <c r="B220" s="32">
         <v>10106.83</v>
       </c>
-      <c r="C220" s="31">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="32">
+    </row>
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="31">
         <v>45622</v>
       </c>
-      <c r="B221" s="35">
+      <c r="B221" s="33">
         <v>10171.49</v>
       </c>
-      <c r="C221" s="33">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="30">
         <v>45623</v>
       </c>
-      <c r="B222" s="34">
+      <c r="B222" s="32">
         <v>10119.67</v>
       </c>
-      <c r="C222" s="31">
-        <v>-5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="32">
+    </row>
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="31">
         <v>45625</v>
       </c>
-      <c r="B223" s="35">
+      <c r="B223" s="33">
         <v>10189.31</v>
       </c>
-      <c r="C223" s="33">
-        <v>6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="30">
         <v>45628</v>
       </c>
-      <c r="B224" s="34">
+      <c r="B224" s="32">
         <v>10238.879999999999</v>
       </c>
-      <c r="C224" s="31">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="32">
+    </row>
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="31">
         <v>45629</v>
       </c>
-      <c r="B225" s="35">
+      <c r="B225" s="33">
         <v>10258.67</v>
       </c>
-      <c r="C225" s="33">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="30">
         <v>45630</v>
       </c>
-      <c r="B226" s="34">
+      <c r="B226" s="32">
         <v>10339.92</v>
       </c>
-      <c r="C226" s="31">
-        <v>7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="32">
+    </row>
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="31">
         <v>45631</v>
       </c>
-      <c r="B227" s="35">
+      <c r="B227" s="33">
         <v>10314.459999999999</v>
       </c>
-      <c r="C227" s="33">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="30">
         <v>45632</v>
       </c>
-      <c r="B228" s="34">
+      <c r="B228" s="32">
         <v>10345.200000000001</v>
       </c>
-      <c r="C228" s="31">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="32">
+    </row>
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="31">
         <v>45635</v>
       </c>
-      <c r="B229" s="35">
+      <c r="B229" s="33">
         <v>10293.94</v>
       </c>
-      <c r="C229" s="33">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="30">
         <v>45636</v>
       </c>
-      <c r="B230" s="34">
+      <c r="B230" s="32">
         <v>10263.98</v>
       </c>
-      <c r="C230" s="31">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="32">
+    </row>
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="31">
         <v>45637</v>
       </c>
-      <c r="B231" s="35">
+      <c r="B231" s="33">
         <v>10359.82</v>
       </c>
-      <c r="C231" s="33">
-        <v>9.2999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="30">
         <v>45638</v>
       </c>
-      <c r="B232" s="34">
+      <c r="B232" s="32">
         <v>10300.25</v>
       </c>
-      <c r="C232" s="31">
-        <v>-5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="32">
+    </row>
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="31">
         <v>45639</v>
       </c>
-      <c r="B233" s="35">
+      <c r="B233" s="33">
         <v>10306.66</v>
       </c>
-      <c r="C233" s="33">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="30">
         <v>45642</v>
       </c>
-      <c r="B234" s="34">
+      <c r="B234" s="32">
         <v>10355.950000000001</v>
       </c>
-      <c r="C234" s="31">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="32">
+    </row>
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="31">
         <v>45643</v>
       </c>
-      <c r="B235" s="35">
+      <c r="B235" s="33">
         <v>10321.370000000001</v>
       </c>
-      <c r="C235" s="33">
-        <v>-3.3E-3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="30">
         <v>45644</v>
       </c>
-      <c r="B236" s="34">
+      <c r="B236" s="32">
         <v>10020.93</v>
       </c>
-      <c r="C236" s="31">
-        <v>-2.9100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="32">
+    </row>
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="31">
         <v>45645</v>
       </c>
-      <c r="B237" s="35">
+      <c r="B237" s="33">
         <v>10008.540000000001</v>
       </c>
-      <c r="C237" s="33">
-        <v>-1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="30">
         <v>45646</v>
       </c>
-      <c r="B238" s="34">
+      <c r="B238" s="32">
         <v>10111.19</v>
       </c>
-      <c r="C238" s="31">
-        <v>1.03E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="32">
+    </row>
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="31">
         <v>45649</v>
       </c>
-      <c r="B239" s="35">
+      <c r="B239" s="33">
         <v>10193.07</v>
       </c>
-      <c r="C239" s="33">
-        <v>8.0999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="30">
         <v>45650</v>
       </c>
-      <c r="B240" s="34">
+      <c r="B240" s="32">
         <v>10305</v>
       </c>
-      <c r="C240" s="31">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A241" s="32">
+    </row>
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="31">
         <v>45652</v>
       </c>
-      <c r="B241" s="35">
+      <c r="B241" s="33">
         <v>10296.93</v>
       </c>
-      <c r="C241" s="33">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="30">
         <v>45653</v>
       </c>
-      <c r="B242" s="34">
+      <c r="B242" s="32">
         <v>10178.200000000001</v>
       </c>
-      <c r="C242" s="31">
-        <v>-1.15E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="32">
+    </row>
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="31">
         <v>45656</v>
       </c>
-      <c r="B243" s="35">
+      <c r="B243" s="33">
         <v>10065.459999999999</v>
       </c>
-      <c r="C243" s="33">
-        <v>-1.11E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="30">
         <v>45657</v>
       </c>
-      <c r="B244" s="34">
+      <c r="B244" s="32">
         <v>10011.73</v>
       </c>
-      <c r="C244" s="31">
-        <v>-5.3E-3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="32">
+    </row>
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="31">
         <v>45659</v>
       </c>
-      <c r="B245" s="35">
+      <c r="B245" s="33">
         <v>9991.2999999999993</v>
       </c>
-      <c r="C245" s="33">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="30">
         <v>45660</v>
       </c>
-      <c r="B246" s="34">
+      <c r="B246" s="32">
         <v>10125.08</v>
       </c>
-      <c r="C246" s="31">
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="32">
+    </row>
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="31">
         <v>45663</v>
       </c>
-      <c r="B247" s="35">
+      <c r="B247" s="33">
         <v>10201.9</v>
       </c>
-      <c r="C247" s="33">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="30">
         <v>45664</v>
       </c>
-      <c r="B248" s="34">
+      <c r="B248" s="32">
         <v>10072.27</v>
       </c>
-      <c r="C248" s="31">
-        <v>-1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="32">
+    </row>
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="31">
         <v>45665</v>
       </c>
-      <c r="B249" s="35">
+      <c r="B249" s="33">
         <v>10085.09</v>
       </c>
-      <c r="C249" s="33">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="30">
         <v>45667</v>
       </c>
-      <c r="B250" s="34">
+      <c r="B250" s="32">
         <v>9947.7199999999993</v>
       </c>
-      <c r="C250" s="31">
-        <v>-1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="32">
+    </row>
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="31">
         <v>45670</v>
       </c>
-      <c r="B251" s="35">
+      <c r="B251" s="33">
         <v>9952.3700000000008</v>
       </c>
-      <c r="C251" s="33">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="30">
         <v>45671</v>
       </c>
-      <c r="B252" s="34">
+      <c r="B252" s="32">
         <v>9943.32</v>
       </c>
-      <c r="C252" s="31">
-        <v>-8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="32">
+    </row>
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="31">
         <v>45672</v>
       </c>
-      <c r="B253" s="35">
+      <c r="B253" s="33">
         <v>10117.459999999999</v>
       </c>
-      <c r="C253" s="33">
-        <v>1.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="30">
         <v>45673</v>
       </c>
-      <c r="B254" s="34">
+      <c r="B254" s="32">
         <v>10076.86</v>
       </c>
-      <c r="C254" s="31">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="32">
+    </row>
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="31">
         <v>45674</v>
       </c>
-      <c r="B255" s="35">
+      <c r="B255" s="33">
         <v>10183.200000000001</v>
       </c>
-      <c r="C255" s="33">
-        <v>1.06E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="30">
         <v>45678</v>
       </c>
-      <c r="B256" s="34">
+      <c r="B256" s="32">
         <v>10270.950000000001</v>
       </c>
-      <c r="C256" s="31">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="32">
+    </row>
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="31">
         <v>45679</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="33">
         <v>10357.6</v>
       </c>
-      <c r="C257" s="33">
-        <v>8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="30">
         <v>45680</v>
       </c>
-      <c r="B258" s="34">
+      <c r="B258" s="32">
         <v>10410.91</v>
       </c>
-      <c r="C258" s="31">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="32">
+    </row>
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="31">
         <v>45681</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="33">
         <v>10371.94</v>
       </c>
-      <c r="C259" s="33">
-        <v>-3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="30">
         <v>45684</v>
       </c>
-      <c r="B260" s="34">
+      <c r="B260" s="32">
         <v>10170.32</v>
       </c>
-      <c r="C260" s="31">
-        <v>-1.9400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="32">
+    </row>
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="31">
         <v>45685</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="33">
         <v>10288.98</v>
       </c>
-      <c r="C261" s="33">
-        <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="30">
         <v>45686</v>
       </c>
-      <c r="B262" s="34">
+      <c r="B262" s="32">
         <v>10235.14</v>
       </c>
-      <c r="C262" s="31">
-        <v>-5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="32">
+    </row>
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="31">
         <v>45687</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="33">
         <v>10279.98</v>
       </c>
-      <c r="C263" s="33">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="30">
         <v>45688</v>
       </c>
-      <c r="B264" s="34">
+      <c r="B264" s="32">
         <v>10229.790000000001</v>
       </c>
-      <c r="C264" s="31">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="32">
+    </row>
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="31">
         <v>45691</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="33">
         <v>10145.049999999999</v>
       </c>
-      <c r="C265" s="33">
-        <v>-8.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="30">
         <v>45692</v>
       </c>
-      <c r="B266" s="34">
+      <c r="B266" s="32">
         <v>10237.27</v>
       </c>
-      <c r="C266" s="31">
-        <v>9.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="32">
+    </row>
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="31">
         <v>45693</v>
       </c>
-      <c r="B267" s="35">
+      <c r="B267" s="33">
         <v>10262.65</v>
       </c>
-      <c r="C267" s="33">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="30">
         <v>45694</v>
       </c>
-      <c r="B268" s="34">
+      <c r="B268" s="32">
         <v>10292.01</v>
       </c>
-      <c r="C268" s="31">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="32">
+    </row>
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="31">
         <v>45695</v>
       </c>
-      <c r="B269" s="35">
+      <c r="B269" s="33">
         <v>10187.39</v>
       </c>
-      <c r="C269" s="33">
-        <v>-1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="30">
         <v>45698</v>
       </c>
-      <c r="B270" s="34">
+      <c r="B270" s="32">
         <v>10283.31</v>
       </c>
-      <c r="C270" s="31">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="32">
+    </row>
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="31">
         <v>45699</v>
       </c>
-      <c r="B271" s="35">
+      <c r="B271" s="33">
         <v>10281.57</v>
       </c>
-      <c r="C271" s="33">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="30">
         <v>45700</v>
       </c>
-      <c r="B272" s="34">
+      <c r="B272" s="32">
         <v>10258.58</v>
       </c>
-      <c r="C272" s="31">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="32">
+    </row>
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="31">
         <v>45701</v>
       </c>
-      <c r="B273" s="35">
+      <c r="B273" s="33">
         <v>10371.629999999999</v>
       </c>
-      <c r="C273" s="33">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="30">
         <v>45702</v>
       </c>
-      <c r="B274" s="34">
+      <c r="B274" s="32">
         <v>10371.14</v>
       </c>
-      <c r="C274" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="32">
+    </row>
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="31">
         <v>45706</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="33">
         <v>10388.18</v>
       </c>
-      <c r="C275" s="33">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="30">
         <v>45707</v>
       </c>
-      <c r="B276" s="34">
+      <c r="B276" s="32">
         <v>10417.91</v>
       </c>
-      <c r="C276" s="31">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A277" s="32">
+    </row>
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="31">
         <v>45708</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="33">
         <v>10390.549999999999</v>
       </c>
-      <c r="C277" s="33">
-        <v>-2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="30">
         <v>45709</v>
       </c>
-      <c r="B278" s="34">
+      <c r="B278" s="32">
         <v>10202.120000000001</v>
       </c>
-      <c r="C278" s="31">
-        <v>-1.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="32">
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="31">
         <v>45712</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="33">
         <v>10133.370000000001</v>
       </c>
-      <c r="C279" s="33">
-        <v>-6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="30">
         <v>45713</v>
       </c>
-      <c r="B280" s="34">
+      <c r="B280" s="32">
         <v>10075.57</v>
       </c>
-      <c r="C280" s="31">
-        <v>-5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="32">
+    </row>
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="31">
         <v>45714</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="33">
         <v>10082.459999999999</v>
       </c>
-      <c r="C281" s="33">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="30">
         <v>45715</v>
       </c>
-      <c r="B282" s="34">
+      <c r="B282" s="32">
         <v>9880.6200000000008</v>
       </c>
-      <c r="C282" s="31">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="32">
+    </row>
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="31">
         <v>45716</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="33">
         <v>10031.799999999999</v>
       </c>
-      <c r="C283" s="33">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="30">
         <v>45719</v>
       </c>
-      <c r="B284" s="34">
+      <c r="B284" s="32">
         <v>9833.48</v>
       </c>
-      <c r="C284" s="31">
-        <v>-1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="32">
+    </row>
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="31">
         <v>45720</v>
       </c>
-      <c r="B285" s="35">
+      <c r="B285" s="33">
         <v>9753.43</v>
       </c>
-      <c r="C285" s="33">
-        <v>-8.0999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="30">
         <v>45721</v>
       </c>
-      <c r="B286" s="34">
+      <c r="B286" s="32">
         <v>9870.91</v>
       </c>
-      <c r="C286" s="31">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="32">
+    </row>
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="31">
         <v>45722</v>
       </c>
-      <c r="B287" s="35">
+      <c r="B287" s="33">
         <v>9696</v>
       </c>
-      <c r="C287" s="33">
-        <v>-1.77E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="30">
         <v>45723</v>
       </c>
-      <c r="B288" s="34">
+      <c r="B288" s="32">
         <v>9768.76</v>
       </c>
-      <c r="C288" s="31">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="32">
+    </row>
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="31">
         <v>45726</v>
       </c>
-      <c r="B289" s="35">
+      <c r="B289" s="33">
         <v>9495.5</v>
       </c>
-      <c r="C289" s="33">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="30">
         <v>45727</v>
       </c>
-      <c r="B290" s="34">
+      <c r="B290" s="32">
         <v>9426.0400000000009</v>
       </c>
-      <c r="C290" s="31">
-        <v>-7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="32">
+    </row>
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="31">
         <v>45728</v>
       </c>
-      <c r="B291" s="35">
+      <c r="B291" s="33">
         <v>9479.09</v>
       </c>
-      <c r="C291" s="33">
-        <v>5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="30">
         <v>45729</v>
       </c>
-      <c r="B292" s="34">
+      <c r="B292" s="32">
         <v>9336.1299999999992</v>
       </c>
-      <c r="C292" s="31">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="32">
+    </row>
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="31">
         <v>45730</v>
       </c>
-      <c r="B293" s="35">
+      <c r="B293" s="33">
         <v>9533.81</v>
       </c>
-      <c r="C293" s="33">
-        <v>2.12E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="30">
         <v>45733</v>
       </c>
-      <c r="B294" s="34">
+      <c r="B294" s="32">
         <v>9584.32</v>
       </c>
-      <c r="C294" s="31">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="32">
+    </row>
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="31">
         <v>45734</v>
       </c>
-      <c r="B295" s="35">
+      <c r="B295" s="33">
         <v>9465.84</v>
       </c>
-      <c r="C295" s="33">
-        <v>-1.24E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="30">
         <v>45735</v>
       </c>
-      <c r="B296" s="34">
+      <c r="B296" s="32">
         <v>9571.2999999999993</v>
       </c>
-      <c r="C296" s="31">
-        <v>1.11E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="32">
+    </row>
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="31">
         <v>45736</v>
       </c>
-      <c r="B297" s="35">
+      <c r="B297" s="33">
         <v>9544.15</v>
       </c>
-      <c r="C297" s="33">
-        <v>-2.8E-3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="30">
         <v>45737</v>
       </c>
-      <c r="B298" s="34">
+      <c r="B298" s="32">
         <v>9562.89</v>
       </c>
-      <c r="C298" s="31">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="32">
+    </row>
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="31">
         <v>45740</v>
       </c>
-      <c r="B299" s="35">
+      <c r="B299" s="33">
         <v>9732.06</v>
       </c>
-      <c r="C299" s="33">
-        <v>1.77E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="30">
         <v>45741</v>
       </c>
-      <c r="B300" s="34">
+      <c r="B300" s="32">
         <v>9745.66</v>
       </c>
-      <c r="C300" s="31">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="32">
+    </row>
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="31">
         <v>45742</v>
       </c>
-      <c r="B301" s="35">
+      <c r="B301" s="33">
         <v>9618.06</v>
       </c>
-      <c r="C301" s="33">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="30">
         <v>45743</v>
       </c>
-      <c r="B302" s="34">
+      <c r="B302" s="32">
         <v>9584.33</v>
       </c>
-      <c r="C302" s="31">
-        <v>-3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="32">
+    </row>
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="31">
         <v>45744</v>
       </c>
-      <c r="B303" s="35">
+      <c r="B303" s="33">
         <v>9389.7999999999993</v>
       </c>
-      <c r="C303" s="33">
-        <v>-2.0299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="30">
         <v>45747</v>
       </c>
-      <c r="B304" s="34">
+      <c r="B304" s="32">
         <v>9429.86</v>
-      </c>
-      <c r="C304" s="31">
-        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>
